--- a/data/R06ryogaku.xlsx
+++ b/data/R06ryogaku.xlsx
@@ -1,18 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B53B88-8076-CC45-84F8-15A8F54FB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6912"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30740" windowHeight="25900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="料額表" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">料額表!$C$10:$C$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">料額表!$H$10:$H$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">料額表!$C$10:$C$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">料額表!$H$10:$H$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$3:$A$34</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$3:$B$34</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$3:$A$34</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$B$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">料額表!$A$1:$H$75</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -799,11 +824,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000&quot;％&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1587,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1720,98 +1745,143 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="9" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1876,54 +1946,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -2018,6 +2042,1046 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>折半額</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>650000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);[Red]\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>8052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14640</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16470</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23790</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29280</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32940</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37515</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40260</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51240</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53985</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56730</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A79-F343-96C6-13EDB4EDE86A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1488830128"/>
+        <c:axId val="1487979648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1488830128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1487979648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1487979648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488830128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2035,7 +3099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2087,7 +3157,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 9"/>
+        <xdr:cNvPr id="3" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2139,6 +3215,47 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8B1CC9-73A1-2145-D2AF-CD160AD3A5E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2513,107 +3630,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="GJ10" sqref="GJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0.1640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="28.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="0.21875" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="28.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="0.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A1" s="92"/>
+      <c r="B1" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="92" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="108"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="110"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="89"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="26" t="s">
         <v>2</v>
       </c>
@@ -2622,7 +3739,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="24" t="s">
         <v>0</v>
@@ -2630,20 +3747,20 @@
       <c r="C8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="47">
+      <c r="D8" s="105"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="46">
         <v>18.3</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>9.15</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="55"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="15"/>
       <c r="D9" s="28" t="s">
         <v>4</v>
@@ -2656,7 +3773,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="38">
         <v>1</v>
@@ -2681,34 +3798,34 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="76">
+      <c r="B11" s="75">
         <v>2</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="56">
         <v>98000</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <v>93000</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="59">
         <v>101000</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="60">
         <f>C11*G8/100</f>
         <v>17934</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="61">
         <f t="shared" ref="H11:H41" si="0">G11/2</f>
         <v>8967</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="30">
         <v>3</v>
@@ -2735,34 +3852,34 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>4</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="62">
         <v>110000</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>107000</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="65">
         <v>114000</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="66">
         <f>C13*G8/100</f>
         <v>20130</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <f t="shared" si="0"/>
         <v>10065</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="37">
         <v>5</v>
@@ -2789,34 +3906,34 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="56">
+      <c r="B15" s="55">
         <v>6</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="62">
         <v>126000</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="63">
         <v>122000</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="65">
         <v>130000</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="66">
         <f>C15*G8/100</f>
         <v>23058</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <f t="shared" si="0"/>
         <v>11529</v>
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="37">
         <v>7</v>
@@ -2843,34 +3960,34 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <v>8</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="62">
         <v>142000</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>138000</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="65">
         <v>146000</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="66">
         <f>C17*G8/100</f>
         <v>25986</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="67">
         <f t="shared" si="0"/>
         <v>12993</v>
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="37">
         <v>9</v>
@@ -2897,34 +4014,34 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="56">
+      <c r="B19" s="55">
         <v>10</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>160000</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>155000</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="65">
         <v>165000</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="66">
         <f>C19*G8/100</f>
         <v>29280</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="67">
         <f t="shared" si="0"/>
         <v>14640</v>
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="37">
         <v>11</v>
@@ -2951,34 +4068,34 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="56">
+      <c r="B21" s="55">
         <v>12</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="62">
         <v>180000</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>175000</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="65">
         <v>185000</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="66">
         <f>C21*G8/100</f>
         <v>32940</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="67">
         <f t="shared" si="0"/>
         <v>16470</v>
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="37">
         <v>13</v>
@@ -3005,34 +4122,34 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="56">
+      <c r="B23" s="55">
         <v>14</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="62">
         <v>200000</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>195000</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="65">
         <v>210000</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="66">
         <f>C23*G8/100</f>
         <v>36600</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="67">
         <f t="shared" si="0"/>
         <v>18300</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="37">
         <v>15</v>
@@ -3059,34 +4176,34 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="56">
+      <c r="B25" s="55">
         <v>16</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="62">
         <v>240000</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <v>230000</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="65">
         <v>250000</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="66">
         <f>C25*G8/100</f>
         <v>43920</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="67">
         <f t="shared" si="0"/>
         <v>21960</v>
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="37">
         <v>17</v>
@@ -3113,34 +4230,34 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <v>18</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="62">
         <v>280000</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="63">
         <v>270000</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="65">
         <v>290000</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="66">
         <f>C27*G8/100</f>
         <v>51240</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="67">
         <f t="shared" si="0"/>
         <v>25620</v>
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="37">
         <v>19</v>
@@ -3168,35 +4285,35 @@
       <c r="I28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="56">
+      <c r="B29" s="55">
         <v>20</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="62">
         <v>320000</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="63">
         <v>310000</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="65">
         <v>330000</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="66">
         <f>C29*G8/100</f>
         <v>58560</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="67">
         <f t="shared" si="0"/>
         <v>29280</v>
       </c>
       <c r="I29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="37">
         <v>21</v>
@@ -3223,34 +4340,34 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="56">
+      <c r="B31" s="55">
         <v>22</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="62">
         <v>360000</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="63">
         <v>350000</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="65">
         <v>370000</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="66">
         <f>C31*G8/100</f>
         <v>65880</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="67">
         <f t="shared" si="0"/>
         <v>32940</v>
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="37">
         <v>23</v>
@@ -3277,34 +4394,34 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="56">
+      <c r="B33" s="55">
         <v>24</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="62">
         <v>410000</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="63">
         <v>395000</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="66">
+      <c r="F33" s="65">
         <v>425000</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="66">
         <f>C33*G8/100</f>
         <v>75030</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="67">
         <f t="shared" si="0"/>
         <v>37515</v>
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="37">
         <v>25</v>
@@ -3331,34 +4448,34 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="56">
+      <c r="B35" s="55">
         <v>26</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="62">
         <v>470000</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="63">
         <v>455000</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="65">
         <v>485000</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="66">
         <f>C35*G8/100</f>
         <v>86010</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="67">
         <f t="shared" si="0"/>
         <v>43005</v>
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="37">
         <v>27</v>
@@ -3385,34 +4502,34 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="56">
+      <c r="B37" s="55">
         <v>28</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="62">
         <v>530000</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="63">
         <v>515000</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="65">
         <v>545000</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="66">
         <f>C37*G8/100</f>
         <v>96990</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="67">
         <f t="shared" si="0"/>
         <v>48495</v>
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="37">
         <v>29</v>
@@ -3439,86 +4556,86 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="56">
+      <c r="B39" s="55">
         <v>30</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="62">
         <v>590000</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="63">
         <v>575000</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="65">
         <v>605000</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="66">
         <f>C39*G8/100</f>
         <v>107970</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="67">
         <f t="shared" si="0"/>
         <v>53985</v>
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="49">
+      <c r="B40" s="48">
         <v>31</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="49">
         <v>620000</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="50">
         <v>605000</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="51">
         <v>635000</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="52">
         <f>C40*G8/100</f>
         <v>113460</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H40" s="53">
         <f t="shared" si="0"/>
         <v>56730</v>
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="69">
+      <c r="B41" s="68">
         <v>32</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="69">
         <v>650000</v>
       </c>
-      <c r="D41" s="71">
+      <c r="D41" s="70">
         <v>635000</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74">
+      <c r="F41" s="72"/>
+      <c r="G41" s="73">
         <f>C41*G8/100</f>
         <v>118950</v>
       </c>
-      <c r="H41" s="75">
+      <c r="H41" s="74">
         <f t="shared" si="0"/>
         <v>59475</v>
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="11.25" customHeight="1" thickTop="1">
       <c r="A42" s="4"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
@@ -3529,83 +4646,83 @@
       <c r="H42" s="23"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="10"/>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="6" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -3616,337 +4733,337 @@
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="46"/>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="45"/>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="4"/>
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="5.25" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="4"/>
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="4"/>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="4.5" customHeight="1">
       <c r="A61" s="4"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="109"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="107" t="s">
+      <c r="B63" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A64" s="4"/>
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="5" customFormat="1" ht="18.75" customHeight="1">
       <c r="A65" s="4"/>
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="5" customFormat="1" ht="4.5" customHeight="1">
       <c r="A66" s="4"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="4"/>
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="4"/>
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="4"/>
-      <c r="B70" s="107" t="s">
+      <c r="B70" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="103"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="5" customFormat="1" ht="6.75" customHeight="1">
       <c r="A71" s="4"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="4"/>
-      <c r="B72" s="110" t="s">
+      <c r="B72" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="113"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="4"/>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="4"/>
-      <c r="B74" s="110" t="s">
+      <c r="B74" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="112"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="112"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="4"/>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="101"/>
-      <c r="H75" s="101"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -3957,26 +5074,33 @@
       <c r="H76" s="14"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="78" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="79" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="80" spans="1:9" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="B4:C7"/>
+    <mergeCell ref="D4:F8"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B55:H55"/>
     <mergeCell ref="B56:H56"/>
@@ -3989,22 +5113,15 @@
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="B64:H64"/>
     <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="B4:C7"/>
-    <mergeCell ref="D4:F8"/>
-    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B10:H41">
@@ -4018,4 +5135,355 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97E5C7E-1C1D-A840-97FB-8E068399D71A}">
+  <dimension ref="A2:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="113" t="str">
+        <f>料額表!B4</f>
+        <v>標準報酬</v>
+      </c>
+      <c r="B2" s="113" t="str">
+        <f>料額表!H7</f>
+        <v>折半額</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="113">
+        <f>料額表!C10</f>
+        <v>88000</v>
+      </c>
+      <c r="B3" s="114">
+        <f>料額表!H10</f>
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="113">
+        <f>料額表!C11</f>
+        <v>98000</v>
+      </c>
+      <c r="B4" s="114">
+        <f>料額表!H11</f>
+        <v>8967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="113">
+        <f>料額表!C12</f>
+        <v>104000</v>
+      </c>
+      <c r="B5" s="114">
+        <f>料額表!H12</f>
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="113">
+        <f>料額表!C13</f>
+        <v>110000</v>
+      </c>
+      <c r="B6" s="114">
+        <f>料額表!H13</f>
+        <v>10065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="113">
+        <f>料額表!C14</f>
+        <v>118000</v>
+      </c>
+      <c r="B7" s="114">
+        <f>料額表!H14</f>
+        <v>10797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="113">
+        <f>料額表!C15</f>
+        <v>126000</v>
+      </c>
+      <c r="B8" s="114">
+        <f>料額表!H15</f>
+        <v>11529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="113">
+        <f>料額表!C16</f>
+        <v>134000</v>
+      </c>
+      <c r="B9" s="114">
+        <f>料額表!H16</f>
+        <v>12261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="113">
+        <f>料額表!C17</f>
+        <v>142000</v>
+      </c>
+      <c r="B10" s="114">
+        <f>料額表!H17</f>
+        <v>12993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="113">
+        <f>料額表!C18</f>
+        <v>150000</v>
+      </c>
+      <c r="B11" s="114">
+        <f>料額表!H18</f>
+        <v>13725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="113">
+        <f>料額表!C19</f>
+        <v>160000</v>
+      </c>
+      <c r="B12" s="114">
+        <f>料額表!H19</f>
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="113">
+        <f>料額表!C20</f>
+        <v>170000</v>
+      </c>
+      <c r="B13" s="114">
+        <f>料額表!H20</f>
+        <v>15555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="113">
+        <f>料額表!C21</f>
+        <v>180000</v>
+      </c>
+      <c r="B14" s="114">
+        <f>料額表!H21</f>
+        <v>16470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="113">
+        <f>料額表!C22</f>
+        <v>190000</v>
+      </c>
+      <c r="B15" s="114">
+        <f>料額表!H22</f>
+        <v>17385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="113">
+        <f>料額表!C23</f>
+        <v>200000</v>
+      </c>
+      <c r="B16" s="114">
+        <f>料額表!H23</f>
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="113">
+        <f>料額表!C24</f>
+        <v>220000</v>
+      </c>
+      <c r="B17" s="114">
+        <f>料額表!H24</f>
+        <v>20130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="113">
+        <f>料額表!C25</f>
+        <v>240000</v>
+      </c>
+      <c r="B18" s="114">
+        <f>料額表!H25</f>
+        <v>21960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="113">
+        <f>料額表!C26</f>
+        <v>260000</v>
+      </c>
+      <c r="B19" s="114">
+        <f>料額表!H26</f>
+        <v>23790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="113">
+        <f>料額表!C27</f>
+        <v>280000</v>
+      </c>
+      <c r="B20" s="114">
+        <f>料額表!H27</f>
+        <v>25620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="113">
+        <f>料額表!C28</f>
+        <v>300000</v>
+      </c>
+      <c r="B21" s="114">
+        <f>料額表!H28</f>
+        <v>27450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="113">
+        <f>料額表!C29</f>
+        <v>320000</v>
+      </c>
+      <c r="B22" s="114">
+        <f>料額表!H29</f>
+        <v>29280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="113">
+        <f>料額表!C30</f>
+        <v>340000</v>
+      </c>
+      <c r="B23" s="114">
+        <f>料額表!H30</f>
+        <v>31110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="113">
+        <f>料額表!C31</f>
+        <v>360000</v>
+      </c>
+      <c r="B24" s="114">
+        <f>料額表!H31</f>
+        <v>32940</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="113">
+        <f>料額表!C32</f>
+        <v>380000</v>
+      </c>
+      <c r="B25" s="114">
+        <f>料額表!H32</f>
+        <v>34770</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="113">
+        <f>料額表!C33</f>
+        <v>410000</v>
+      </c>
+      <c r="B26" s="114">
+        <f>料額表!H33</f>
+        <v>37515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="113">
+        <f>料額表!C34</f>
+        <v>440000</v>
+      </c>
+      <c r="B27" s="114">
+        <f>料額表!H34</f>
+        <v>40260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="113">
+        <f>料額表!C35</f>
+        <v>470000</v>
+      </c>
+      <c r="B28" s="114">
+        <f>料額表!H35</f>
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="113">
+        <f>料額表!C36</f>
+        <v>500000</v>
+      </c>
+      <c r="B29" s="114">
+        <f>料額表!H36</f>
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="113">
+        <f>料額表!C37</f>
+        <v>530000</v>
+      </c>
+      <c r="B30" s="114">
+        <f>料額表!H37</f>
+        <v>48495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="113">
+        <f>料額表!C38</f>
+        <v>560000</v>
+      </c>
+      <c r="B31" s="114">
+        <f>料額表!H38</f>
+        <v>51240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="113">
+        <f>料額表!C39</f>
+        <v>590000</v>
+      </c>
+      <c r="B32" s="114">
+        <f>料額表!H39</f>
+        <v>53985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="113">
+        <f>料額表!C40</f>
+        <v>620000</v>
+      </c>
+      <c r="B33" s="114">
+        <f>料額表!H40</f>
+        <v>56730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="113">
+        <f>料額表!C41</f>
+        <v>650000</v>
+      </c>
+      <c r="B34" s="114">
+        <f>料額表!H41</f>
+        <v>59475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>